--- a/results/StopTox External Validation Metric Calculation.xlsx
+++ b/results/StopTox External Validation Metric Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricat/Documents/GitHub/StopTox-External-Validation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAC740-5359-6F4A-BEC7-BEC396A5050F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51815619-6797-6E4A-8C37-D9DAD9F52B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43040" yWindow="2780" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Skin Sensitization</t>
   </si>
@@ -67,18 +67,12 @@
     <t>NPV</t>
   </si>
   <si>
-    <t>Balanced Accuracy</t>
-  </si>
-  <si>
     <t>Training Set Inclusion</t>
   </si>
   <si>
     <t>Endpoint</t>
   </si>
   <si>
-    <t>Correct Classification Rate</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -86,6 +80,9 @@
   </si>
   <si>
     <t>Scores reflect predictions for compounds outside the training set of the model, but includes compounds inside and outside the applicability domain.</t>
+  </si>
+  <si>
+    <t>Corrrect Classification Rate</t>
   </si>
 </sst>
 </file>
@@ -171,10 +168,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -531,7 +528,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -669,7 +666,7 @@
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -681,10 +678,10 @@
         <v>0.83333333333333326</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <v>0.8125</v>
@@ -692,150 +689,127 @@
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>0.66666666666666696</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D8" s="2">
-        <v>0.81818181818181801</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.93333333333333302</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0.8</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D10" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.133333333333333</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.266666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
